--- a/in-progress/Composto_2019/SUBMISSION/S4/S4_template.xlsx
+++ b/in-progress/Composto_2019/SUBMISSION/S4/S4_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miked\Google Drive\UVM post-doc\Curation\Virtual Issue\2019Composto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miked\Documents\GitHub\nmcuration\in-progress\Composto_2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3414E0B-B81E-4E5D-AD2F-9DC7C8747DD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3FEE788-4D0F-4A66-A5CC-E439E691E1FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="605" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-7095" windowWidth="16440" windowHeight="28440" tabRatio="605" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="legend" sheetId="14" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="641">
   <si>
     <t>data origin</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2491,13 +2491,7 @@
     <t>kg/mol</t>
   </si>
   <si>
-    <t>octa(aminophenyl) polyhedral oligomeric silsesquioxane</t>
-  </si>
-  <si>
     <t>OAPS</t>
-  </si>
-  <si>
-    <t>nm</t>
   </si>
   <si>
     <t>(P2VP) was received from Polymer Source or Scientific Polymer
@@ -2528,9 +2522,6 @@
     <t>MeOH</t>
   </si>
   <si>
-    <t>several</t>
-  </si>
-  <si>
     <t>Celsius</t>
   </si>
   <si>
@@ -2570,21 +2561,15 @@
     <t>S4</t>
   </si>
   <si>
-    <t>3.23333e-16</t>
+    <t>cm^2s^-1</t>
+  </si>
+  <si>
+    <t>absolute</t>
   </si>
   <si>
     <t>S1</t>
   </si>
   <si>
-    <t>cm^2s^-1</t>
-  </si>
-  <si>
-    <t>absolute</t>
-  </si>
-  <si>
-    <t>2.51661e-17</t>
-  </si>
-  <si>
     <t>109.9</t>
   </si>
   <si>
@@ -2592,6 +2577,15 @@
   </si>
   <si>
     <t>S4_BDS_data.xlsx</t>
+  </si>
+  <si>
+    <t>octa(aminophenyl) polyhedral oligomeric silsesquioxane</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>nm</t>
   </si>
 </sst>
 </file>
@@ -3388,7 +3382,7 @@
       <alignment wrapText="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="551">
+  <cellXfs count="315">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3696,6 +3690,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3738,7 +3733,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5"/>
@@ -3753,15 +3747,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
       <alignment wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
       <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
       <alignment wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
       <alignment wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
       <alignment wrapText="true"/>
     </xf>
@@ -3777,6 +3780,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
       <alignment wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
       <alignment wrapText="true"/>
     </xf>
@@ -3813,15 +3819,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
       <alignment wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
       <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
       <alignment wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
       <alignment wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
       <alignment wrapText="true"/>
     </xf>
@@ -3837,6 +3852,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
       <alignment wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
       <alignment wrapText="true"/>
     </xf>
@@ -3873,15 +3891,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
       <alignment wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
       <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
       <alignment wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
       <alignment wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
       <alignment wrapText="true"/>
     </xf>
@@ -3897,6 +3924,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
       <alignment wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
       <alignment wrapText="true"/>
     </xf>
@@ -3933,15 +3963,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
       <alignment wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
       <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
       <alignment wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
       <alignment wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
       <alignment wrapText="true"/>
     </xf>
@@ -3957,6 +3996,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
       <alignment wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
       <alignment wrapText="true"/>
     </xf>
@@ -3993,15 +4035,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
       <alignment wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
       <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
       <alignment wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
       <alignment wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
       <alignment wrapText="true"/>
     </xf>
@@ -4017,6 +4068,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
       <alignment wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
       <alignment wrapText="true"/>
     </xf>
@@ -4047,775 +4101,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
       <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
       <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4">
@@ -5199,13 +4485,13 @@
     <row r="7" spans="1:3">
       <c r="B7" s="169"/>
       <c r="C7" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="168"/>
       <c r="C9" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
   </sheetData>
@@ -5240,11 +4526,11 @@
       <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:8" ht="61.2" customHeight="1">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="184" t="s">
         <v>530</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
     </row>
     <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="21" t="s">
@@ -5419,11 +4705,11 @@
       <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:10" ht="61.2" customHeight="1">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="184" t="s">
         <v>530</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
     </row>
     <row r="4" spans="1:10" ht="16.2" thickBot="1">
       <c r="A4" s="21" t="s">
@@ -5768,10 +5054,10 @@
       <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:4" ht="114" customHeight="1">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="185" t="s">
         <v>607</v>
       </c>
-      <c r="B2" s="184"/>
+      <c r="B2" s="185"/>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1"/>
     <row r="4" spans="1:4" ht="15.6">
@@ -6741,11 +6027,11 @@
       <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:8" ht="15.6">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="184" t="s">
         <v>442</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
       <c r="D2" s="44"/>
       <c r="E2" s="44"/>
       <c r="F2" s="44"/>
@@ -7400,7 +6686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -7421,10 +6707,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="60" customHeight="1">
-      <c r="A2" s="171" t="s">
+      <c r="A2" s="172" t="s">
         <v>427</v>
       </c>
-      <c r="B2" s="171"/>
+      <c r="B2" s="172"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:4" ht="15.6">
@@ -7450,8 +6736,8 @@
       <c r="A5" s="121" t="s">
         <v>382</v>
       </c>
-      <c r="B5" s="546" t="s">
-        <v>634</v>
+      <c r="B5" s="306" t="s">
+        <v>631</v>
       </c>
       <c r="C5" s="120" t="s">
         <v>565</v>
@@ -7464,8 +6750,8 @@
       <c r="A6" s="45" t="s">
         <v>522</v>
       </c>
-      <c r="B6" s="550" t="s">
-        <v>636</v>
+      <c r="B6" s="310" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.6">
@@ -7728,8 +7014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I211"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7754,11 +7040,11 @@
       <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" ht="15.6">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="173" t="s">
         <v>529</v>
       </c>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
     </row>
     <row r="4" spans="1:5" ht="15.6">
       <c r="A4" s="22" t="s">
@@ -7858,7 +7144,7 @@
       <c r="B15" s="5" t="s">
         <v>616</v>
       </c>
-      <c r="C15" s="548" t="n">
+      <c r="C15" s="308" t="n">
         <v>100000.0</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -7969,10 +7255,11 @@
       <c r="A28" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="B28" s="16" t="s">
-        <v>618</v>
+      <c r="B28" s="311" t="s">
+        <v>638</v>
       </c>
       <c r="C28" s="13"/>
+      <c r="D28"/>
     </row>
     <row r="29" spans="1:6" ht="15.6">
       <c r="A29" s="2" t="s">
@@ -7980,15 +7267,17 @@
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="13"/>
+      <c r="D29"/>
     </row>
     <row r="30" spans="1:6" ht="15.6">
       <c r="A30" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="B30" s="16" t="s">
-        <v>619</v>
+      <c r="B30" s="312" t="s">
+        <v>618</v>
       </c>
       <c r="C30" s="13"/>
+      <c r="D30"/>
     </row>
     <row r="31" spans="1:6" ht="15.6">
       <c r="A31" s="2" t="s">
@@ -7996,6 +7285,7 @@
       </c>
       <c r="B31" s="16"/>
       <c r="C31" s="13"/>
+      <c r="D31"/>
     </row>
     <row r="32" spans="1:6" ht="15.6">
       <c r="A32" s="2" t="s">
@@ -8003,6 +7293,7 @@
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="13"/>
+      <c r="D32"/>
     </row>
     <row r="33" spans="1:5" ht="15.6">
       <c r="A33" s="2" t="s">
@@ -8018,17 +7309,18 @@
       </c>
       <c r="B34" s="16"/>
       <c r="C34" s="13"/>
+      <c r="D34"/>
     </row>
     <row r="35" spans="1:5" ht="15.6">
       <c r="A35" s="2" t="s">
         <v>535</v>
       </c>
       <c r="B35" s="16"/>
-      <c r="C35" s="16">
-        <v>1.8</v>
-      </c>
-      <c r="D35" s="29" t="s">
-        <v>620</v>
+      <c r="C35" s="313" t="s">
+        <v>639</v>
+      </c>
+      <c r="D35" s="314" t="s">
+        <v>640</v>
       </c>
       <c r="E35" s="16"/>
     </row>
@@ -8107,7 +7399,7 @@
       <c r="B46" s="19" t="s">
         <v>455</v>
       </c>
-      <c r="C46" s="547" t="n">
+      <c r="C46" s="307" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -8218,16 +7510,16 @@
       <c r="A60" s="18" t="s">
         <v>527</v>
       </c>
-      <c r="F60" s="172" t="s">
+      <c r="F60" s="173" t="s">
         <v>543</v>
       </c>
-      <c r="G60" s="172"/>
-      <c r="H60" s="172"/>
+      <c r="G60" s="173"/>
+      <c r="H60" s="173"/>
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1">
-      <c r="F61" s="172"/>
-      <c r="G61" s="172"/>
-      <c r="H61" s="172"/>
+      <c r="F61" s="173"/>
+      <c r="G61" s="173"/>
+      <c r="H61" s="173"/>
     </row>
     <row r="62" spans="1:8" ht="16.2" thickTop="1">
       <c r="A62" s="114" t="s">
@@ -8242,9 +7534,9 @@
       <c r="D62" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="F62" s="172"/>
-      <c r="G62" s="172"/>
-      <c r="H62" s="172"/>
+      <c r="F62" s="173"/>
+      <c r="G62" s="173"/>
+      <c r="H62" s="173"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="76" t="s">
@@ -8255,9 +7547,9 @@
       <c r="D63" s="73" t="s">
         <v>528</v>
       </c>
-      <c r="F63" s="172"/>
-      <c r="G63" s="172"/>
-      <c r="H63" s="172"/>
+      <c r="F63" s="173"/>
+      <c r="G63" s="173"/>
+      <c r="H63" s="173"/>
     </row>
     <row r="64" spans="1:8" ht="15" thickBot="1">
       <c r="A64" s="76" t="s">
@@ -8268,9 +7560,9 @@
       <c r="D64" s="73" t="s">
         <v>545</v>
       </c>
-      <c r="F64" s="173"/>
-      <c r="G64" s="173"/>
-      <c r="H64" s="173"/>
+      <c r="F64" s="174"/>
+      <c r="G64" s="174"/>
+      <c r="H64" s="174"/>
     </row>
     <row r="65" spans="1:9" ht="21.6" thickBot="1">
       <c r="A65" s="94" t="s">
@@ -9592,7 +8884,7 @@
   <dimension ref="A1:I136"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9614,19 +8906,19 @@
       <c r="B1" s="11"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
-      <c r="F1" s="180" t="s">
+      <c r="F1" s="181" t="s">
         <v>488</v>
       </c>
-      <c r="G1" s="181"/>
-      <c r="H1" s="181"/>
-      <c r="I1" s="182"/>
+      <c r="G1" s="182"/>
+      <c r="H1" s="182"/>
+      <c r="I1" s="183"/>
     </row>
     <row r="2" spans="1:9" ht="112.5" customHeight="1">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="179" t="s">
         <v>544</v>
       </c>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
       <c r="F2" s="63"/>
       <c r="G2" s="64"/>
       <c r="H2" s="64"/>
@@ -9637,13 +8929,13 @@
         <v>598</v>
       </c>
       <c r="B3" s="162" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C3" s="47"/>
-      <c r="F3" s="174" t="s">
+      <c r="F3" s="175" t="s">
         <v>489</v>
       </c>
-      <c r="G3" s="175"/>
+      <c r="G3" s="176"/>
       <c r="H3" s="64"/>
       <c r="I3" s="137"/>
     </row>
@@ -9663,10 +8955,10 @@
         <v>271</v>
       </c>
       <c r="C5" s="20"/>
-      <c r="F5" s="176" t="s">
+      <c r="F5" s="177" t="s">
         <v>538</v>
       </c>
-      <c r="G5" s="177"/>
+      <c r="G5" s="178"/>
       <c r="H5" s="92"/>
       <c r="I5" s="93"/>
     </row>
@@ -9726,7 +9018,7 @@
         <v>279</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C9" s="77"/>
       <c r="D9" s="73"/>
@@ -9745,7 +9037,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="95" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D10" s="93"/>
       <c r="F10" s="96"/>
@@ -9796,7 +9088,7 @@
         <v>558</v>
       </c>
       <c r="B13" s="95" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C13" s="95"/>
       <c r="D13" s="106"/>
@@ -9877,7 +9169,7 @@
         <v>50</v>
       </c>
       <c r="C18" s="95" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D18" s="93"/>
       <c r="F18" s="96"/>
@@ -9928,7 +9220,7 @@
         <v>558</v>
       </c>
       <c r="B21" s="95" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C21" s="95"/>
       <c r="D21" s="106"/>
@@ -10037,12 +9329,8 @@
       <c r="A28" s="139" t="s">
         <v>287</v>
       </c>
-      <c r="B28" s="132" t="s">
-        <v>624</v>
-      </c>
-      <c r="C28" s="131" t="s">
-        <v>425</v>
-      </c>
+      <c r="B28" s="132"/>
+      <c r="C28" s="131"/>
       <c r="D28" s="137"/>
       <c r="F28" s="139" t="s">
         <v>288</v>
@@ -10156,7 +9444,7 @@
         <v>279</v>
       </c>
       <c r="B35" s="132" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C35" s="77"/>
       <c r="D35" s="137"/>
@@ -10173,7 +9461,7 @@
         <v>20</v>
       </c>
       <c r="C36" s="95" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D36" s="93"/>
       <c r="F36" s="139" t="s">
@@ -10220,7 +9508,7 @@
         <v>558</v>
       </c>
       <c r="B39" s="95" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C39" s="95"/>
       <c r="D39" s="106"/>
@@ -10439,7 +9727,7 @@
         <v>170</v>
       </c>
       <c r="C53" s="131" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D53" s="137"/>
       <c r="F53" s="139" t="s">
@@ -11603,11 +10891,11 @@
       <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:8" ht="91.2" customHeight="1">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="184" t="s">
         <v>442</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
       <c r="D2" s="44"/>
       <c r="E2" s="44"/>
       <c r="F2" s="44"/>
@@ -12135,7 +11423,7 @@
         <v>210</v>
       </c>
       <c r="B40" s="132" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C40" s="125"/>
       <c r="D40" s="125"/>
@@ -12149,7 +11437,7 @@
         <v>218</v>
       </c>
       <c r="B41" s="132" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C41" s="125"/>
       <c r="D41" s="125"/>
@@ -12439,7 +11727,7 @@
         <v>210</v>
       </c>
       <c r="B61" s="132" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C61" s="125"/>
       <c r="D61" s="125"/>
@@ -12481,7 +11769,7 @@
         <v>10</v>
       </c>
       <c r="D64" s="132" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E64" s="131"/>
       <c r="F64" s="132"/>
@@ -12737,7 +12025,7 @@
       <c r="D82" s="132"/>
       <c r="E82" s="131"/>
       <c r="F82" s="132"/>
-      <c r="G82" s="544"/>
+      <c r="G82" s="304"/>
       <c r="H82" s="125"/>
     </row>
     <row r="83" spans="1:8">
@@ -13047,11 +12335,11 @@
       <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:8" ht="48" customHeight="1">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="184" t="s">
         <v>530</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
     </row>
     <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="21" t="s">
@@ -13848,11 +13136,11 @@
       <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" ht="48.75" customHeight="1">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="184" t="s">
         <v>530</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
     </row>
     <row r="4" spans="1:5" ht="15.6">
       <c r="A4" s="21" t="s">
@@ -14261,11 +13549,11 @@
       <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:6" ht="51" customHeight="1">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="184" t="s">
         <v>530</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
     </row>
     <row r="4" spans="1:6" ht="15.6">
       <c r="A4" s="21" t="s">
@@ -14415,11 +13703,11 @@
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
-      <c r="E18" s="549" t="s">
-        <v>642</v>
+      <c r="E18" s="309" t="s">
+        <v>637</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -14546,11 +13834,11 @@
       <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:8" ht="61.2" customHeight="1">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="184" t="s">
         <v>530</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
     </row>
     <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="21" t="s">
@@ -14599,7 +13887,7 @@
         <v>164</v>
       </c>
       <c r="B9" s="163" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.6">
@@ -14728,10 +14016,12 @@
         <v>590</v>
       </c>
       <c r="B26" s="132"/>
-      <c r="C26" s="539" t="s">
-        <v>625</v>
-      </c>
-      <c r="D26" s="167"/>
+      <c r="C26" s="298" t="s">
+        <v>635</v>
+      </c>
+      <c r="D26" s="299" t="s">
+        <v>622</v>
+      </c>
       <c r="E26" s="23"/>
       <c r="F26" s="24"/>
       <c r="G26" s="24"/>
@@ -14811,12 +14101,18 @@
         <v>200</v>
       </c>
       <c r="B38" s="24"/>
-      <c r="C38" s="529" t="s">
-        <v>639</v>
-      </c>
-      <c r="D38" s="167"/>
-      <c r="E38" s="167"/>
-      <c r="F38" s="167"/>
+      <c r="C38" s="290" t="n">
+        <v>3.23333E-16</v>
+      </c>
+      <c r="D38" s="291" t="s">
+        <v>632</v>
+      </c>
+      <c r="E38" s="292" t="s">
+        <v>633</v>
+      </c>
+      <c r="F38" s="293" t="n">
+        <v>2.51661E-17</v>
+      </c>
       <c r="G38" s="24"/>
     </row>
     <row r="39" spans="1:7" ht="15.6">
